--- a/Home_01/Task.xlsx
+++ b/Home_01/Task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Крестьянин</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>атака</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
   <si>
     <t>защита</t>
@@ -524,7 +527,7 @@
       <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="5">
@@ -546,7 +549,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -573,7 +576,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
@@ -600,26 +603,26 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I5" s="5">
         <v>-4</v>
@@ -627,7 +630,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
@@ -654,7 +657,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5">
         <v>3</v>
@@ -681,7 +684,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
@@ -708,7 +711,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
@@ -735,7 +738,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -759,7 +762,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -772,7 +775,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -785,7 +788,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>

--- a/Home_01/Task.xlsx
+++ b/Home_01/Task.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Крестьянин</t>
   </si>
@@ -91,6 +91,17 @@
   </si>
   <si>
     <t>пятью экземплярами каждого персонажа и вывести информацию обо все в консоль.</t>
+  </si>
+  <si>
+    <t>добавить поле статус
+создать интерфейс с полями
+1. ударить
+2. получить повреждение
+3. вернуть статус
+4. переместиться
+5. вернуть состояние
+добавить обстрактный класс с конструктором
+реализовать наследование</t>
   </si>
 </sst>
 </file>
@@ -98,7 +109,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +128,12 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2c2d30"/>
+      <name val="Roboto"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -147,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -158,20 +175,38 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -478,21 +513,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="7" max="7" style="9" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="7" max="7" style="13" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="13" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="15" width="10.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="22.5" customFormat="1" s="1">
@@ -521,91 +556,91 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>12</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>17</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5">
+      <c r="F2" s="5"/>
+      <c r="G2" s="4">
         <v>4</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>6</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>3</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>10</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>12</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5">
+      <c r="F3" s="5"/>
+      <c r="G3" s="4">
         <v>5</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>3</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
         <v>32</v>
       </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
         <v>16</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -617,193 +652,306 @@
       <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>-4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>10</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>15</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>30</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5">
+      <c r="F6" s="5"/>
+      <c r="G6" s="4">
         <v>10</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>10</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>6</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>9</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>9</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5">
+      <c r="F7" s="5"/>
+      <c r="G7" s="4">
         <v>4</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>4</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="5">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="F9" s="5"/>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="4" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="4" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="4" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="2"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A17" s="10"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A18" s="10"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A19" s="10"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A20" s="10"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A21" s="10"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A22" s="10"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A23" s="10"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A24" s="10"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A16:H24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Home_01/Task.xlsx
+++ b/Home_01/Task.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GB\OOP\Object-oriented programming\Home_01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A448029-2816-479D-9F6B-7F04DE927C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Лист1"/>
-    <sheet r:id="rId2" sheetId="2" name="Лист2"/>
-    <sheet r:id="rId3" sheetId="3" name="Лист3"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Крестьянин</t>
   </si>
@@ -103,12 +109,14 @@
 добавить обстрактный класс с конструктором
 реализовать наследование</t>
   </si>
+  <si>
+    <t>Добавить реализацию метода step() для волшебников.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,7 +140,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF2c2d30"/>
+      <color rgb="FF2C2D30"/>
       <name val="Roboto"/>
       <family val="2"/>
     </font>
@@ -164,62 +172,77 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -230,10 +253,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -271,71 +294,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -363,7 +386,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -386,11 +409,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -399,13 +422,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -415,7 +438,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -424,7 +447,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -433,7 +456,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -441,10 +464,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -509,28 +532,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="7" max="7" style="13" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="13" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="15" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="11" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="22.5" customFormat="1" s="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -555,7 +580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -582,7 +607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -609,7 +634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -636,7 +661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -663,7 +688,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -690,7 +715,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -717,7 +742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -744,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -771,7 +796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -784,7 +809,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -795,46 +820,46 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="2" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="2" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -845,120 +870,134 @@
       <c r="H15" s="6"/>
       <c r="I15" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="11"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="A14:I14"/>
     <mergeCell ref="A16:H24"/>
+    <mergeCell ref="A26:H26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -973,7 +1012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>

--- a/Home_01/Task.xlsx
+++ b/Home_01/Task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GB\OOP\Object-oriented programming\Home_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A448029-2816-479D-9F6B-7F04DE927C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320BF5D8-19D8-4219-B461-FE20D2F0F588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Крестьянин</t>
   </si>
@@ -88,15 +88,6 @@
   </si>
   <si>
     <t>имя</t>
-  </si>
-  <si>
-    <t>Написать программу с семью классами, описывающими данных в таблице персонажей. Для каждого создать по два конструктора</t>
-  </si>
-  <si>
-    <t>и геттеры приватных полей. А также метод возвращающий строку с  кратким описанием персонажа. В основной программе создать списки с</t>
-  </si>
-  <si>
-    <t>пятью экземплярами каждого персонажа и вывести информацию обо все в консоль.</t>
   </si>
   <si>
     <t>добавить поле статус
@@ -112,12 +103,18 @@
   <si>
     <t>Добавить реализацию метода step() для волшебников.</t>
   </si>
+  <si>
+    <t>Задать персонажам координаты в поле 10 на 10. Расположить персонажей в одну линию по сторонам поля. Перезагрузить метод step() для всех наследников базового класса.</t>
+  </si>
+  <si>
+    <t>Написать программу с семью классами, описывающими данных в таблице персонажей. Для каждого создать по два конструктора и геттеры приватных полей. А также метод возвращающий строку с  кратким описанием персонажа. В основной программе создать списки с пятью экземплярами каждого персонажа и вывести информацию обо все в консоль.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,9 +137,17 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF2C2D30"/>
-      <name val="Roboto"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -172,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -207,28 +212,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -536,23 +552,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="11" hidden="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="16" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -820,176 +836,161 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="1:9" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
+    <mergeCell ref="A24:H25"/>
     <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A16:H24"/>
-    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A14:H20"/>
+    <mergeCell ref="A22:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Home_01/Task.xlsx
+++ b/Home_01/Task.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GB\OOP\Object-oriented programming\Home_01\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320BF5D8-19D8-4219-B461-FE20D2F0F588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet r:id="rId1" sheetId="1" name="Лист1"/>
+    <sheet r:id="rId2" sheetId="2" name="Лист2"/>
+    <sheet r:id="rId3" sheetId="3" name="Лист3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -88,6 +82,9 @@
   </si>
   <si>
     <t>имя</t>
+  </si>
+  <si>
+    <t>Написать программу с семью классами, описывающими данных в таблице персонажей. Для каждого создать по два конструктора и геттеры приватных полей. А также метод возвращающий строку с  кратким описанием персонажа. В основной программе создать списки с пятью экземплярами каждого персонажа и вывести информацию обо все в консоль.</t>
   </si>
   <si>
     <t>добавить поле статус
@@ -106,14 +103,12 @@
   <si>
     <t>Задать персонажам координаты в поле 10 на 10. Расположить персонажей в одну линию по сторонам поля. Перезагрузить метод step() для всех наследников базового класса.</t>
   </si>
-  <si>
-    <t>Написать программу с семью классами, описывающими данных в таблице персонажей. Для каждого создать по два конструктора и геттеры приватных полей. А также метод возвращающий строку с  кратким описанием персонажа. В основной программе создать списки с пятью экземплярами каждого персонажа и вывести информацию обо все в консоль.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -137,17 +132,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF2c2d30"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF2C2D30"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,88 +170,83 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="23">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -269,10 +257,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -310,71 +298,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -402,7 +390,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -425,11 +413,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -438,13 +426,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -454,7 +442,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -463,7 +451,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -472,7 +460,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -480,10 +468,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -548,30 +536,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="16" hidden="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="19" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="20" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="20" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="20" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="20" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="21" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="7" max="7" style="20" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="20" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="22" width="10.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="22.5" customFormat="1" s="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -596,7 +582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -623,7 +609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -650,7 +636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -677,7 +663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -704,7 +690,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -731,7 +717,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -758,7 +744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -785,7 +771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -812,7 +798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -825,7 +811,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -836,20 +822,20 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-    </row>
-    <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="46.5" customFormat="1" s="1">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="2"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -860,145 +846,157 @@
       <c r="H13" s="6"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="13"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A15" s="11"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A16" s="11"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A17" s="11"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A18" s="11"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A19" s="11"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A20" s="11"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="2"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="16"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A24" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A24:H25"/>
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="A14:H20"/>
     <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A24:H25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1013,7 +1011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>

--- a/Home_01/Task.xlsx
+++ b/Home_01/Task.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GB\OOP\Object-oriented programming\Home_01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FB4CC4-C28B-4E6E-A441-0DD2129494E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Лист1"/>
-    <sheet r:id="rId2" sheetId="2" name="Лист2"/>
-    <sheet r:id="rId3" sheetId="3" name="Лист3"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Крестьянин</t>
   </si>
@@ -103,12 +109,14 @@
   <si>
     <t>Задать персонажам координаты в поле 10 на 10. Расположить персонажей в одну линию по сторонам поля. Перезагрузить метод step() для всех наследников базового класса.</t>
   </si>
+  <si>
+    <t>Доработать координаты персонажей. Реализовать метод расчёта расстояния до ближайшего врага и реализовать метод step() лучника.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,7 +140,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF2c2d30"/>
+      <color rgb="FF2C2D30"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -170,83 +178,90 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -257,10 +272,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -298,71 +313,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -390,7 +405,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -413,11 +428,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -426,13 +441,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -442,7 +457,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -451,7 +466,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -460,7 +475,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -468,10 +483,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -536,28 +551,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="19" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="20" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="20" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="20" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="20" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="21" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="7" max="7" style="20" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="20" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="22" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="11.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="16" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="22.5" customFormat="1" s="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -582,7 +599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -609,7 +626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -636,7 +653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -663,7 +680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -690,7 +707,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -717,7 +734,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -744,7 +761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -771,7 +788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -798,7 +815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -811,7 +828,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -822,20 +839,20 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="46.5" customFormat="1" s="1">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -846,86 +863,86 @@
       <c r="H13" s="6"/>
       <c r="I13" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -936,67 +953,90 @@
       <c r="H21" s="6"/>
       <c r="I21" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="16"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A24" s="17" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:9" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A25" s="2"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="1:9" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="13"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="A14:H20"/>
     <mergeCell ref="A22:H22"/>
     <mergeCell ref="A24:H25"/>
+    <mergeCell ref="A27:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1011,7 +1051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>

--- a/Home_01/Task.xlsx
+++ b/Home_01/Task.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GB\OOP\Object-oriented programming\Home_01\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FB4CC4-C28B-4E6E-A441-0DD2129494E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet r:id="rId1" sheetId="1" name="Лист1"/>
+    <sheet r:id="rId2" sheetId="2" name="Лист2"/>
+    <sheet r:id="rId3" sheetId="3" name="Лист3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -116,7 +110,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -140,7 +135,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF2C2D30"/>
+      <color rgb="FF2c2d30"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -178,90 +173,92 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="26">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -272,10 +269,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -313,71 +310,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -405,7 +402,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -428,11 +425,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -441,13 +438,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -457,7 +454,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -466,7 +463,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -475,7 +472,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -483,10 +480,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -551,30 +548,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="16" hidden="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="23" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="23" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="23" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="23" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="24" width="13.576428571428572" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="7" max="7" style="23" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="23" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="25" width="10.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="22.5" customFormat="1" s="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -599,7 +594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -626,7 +621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -653,7 +648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -680,7 +675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -707,7 +702,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -734,7 +729,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -761,7 +756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -788,7 +783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -815,7 +810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -828,7 +823,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -839,20 +834,20 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="46.5" customFormat="1" s="1">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-    </row>
-    <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="2"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -863,86 +858,86 @@
       <c r="H13" s="6"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A15" s="11"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A16" s="11"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A17" s="11"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A18" s="11"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A19" s="11"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A20" s="11"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="2"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -953,75 +948,88 @@
       <c r="H21" s="6"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="12"/>
-    </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="2"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A24" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="13"/>
-    </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="13"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A27" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="21"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A28" s="20"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1036,7 +1044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1051,7 +1059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
